--- a/spliced/falling/2023-03-25_18-03-39/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-39/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>0.0639881342649459</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.1972274780273441</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.3113194406032568</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5224930047988898</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0047342055477201</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0751364231109619</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0545197241008281</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-03-39/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-39/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.5706689357757579</v>
+        <v>-0.3537254333496094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0343174934387197</v>
+        <v>0.2088937759399415</v>
       </c>
       <c r="E2" t="n">
-        <v>1.229419425129892</v>
+        <v>0.5035260319709778</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0884227454662323</v>
+        <v>-0.0386372283101081</v>
       </c>
       <c r="G2" t="n">
-        <v>0.143247902393341</v>
+        <v>0.008399397134780801</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0100792767480015</v>
+        <v>-0.0021380283869802</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.414066433906555</v>
+        <v>-0.4043011069297791</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8149144649505613</v>
+        <v>0.3229363560676575</v>
       </c>
       <c r="E3" t="n">
-        <v>2.08326780796051</v>
+        <v>0.4749223440885544</v>
       </c>
       <c r="F3" t="n">
-        <v>0.064446285367012</v>
+        <v>0.0134390350431203</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3347541689872741</v>
+        <v>0.0704022198915481</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1197295859456062</v>
+        <v>-0.0390953756868839</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.309795856475833</v>
+        <v>-0.2195036411285398</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.58020401000977</v>
+        <v>0.2696369886398314</v>
       </c>
       <c r="E4" t="n">
-        <v>2.379897594451913</v>
+        <v>0.4450621306896209</v>
       </c>
       <c r="F4" t="n">
-        <v>0.270766019821167</v>
+        <v>0.0154243474826216</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8387179970741272</v>
+        <v>0.030695978552103</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0482583530247211</v>
+        <v>0.0099265603348612</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.793576478958134</v>
+        <v>-0.5155707597732552</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.474893987178807</v>
+        <v>0.2643678188323975</v>
       </c>
       <c r="E5" t="n">
-        <v>6.666534841060649</v>
+        <v>0.5658968165516856</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08216137439012521</v>
+        <v>0.041233405470848</v>
       </c>
       <c r="G5" t="n">
-        <v>1.014799833297729</v>
+        <v>-0.0022907445672899</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.6319400668144226</v>
+        <v>0.0502436682581901</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-4.682361364364626</v>
+        <v>-0.4721715450286855</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.100861430168151</v>
+        <v>0.2206716537475583</v>
       </c>
       <c r="E6" t="n">
-        <v>4.060978174209591</v>
+        <v>0.4629700779914848</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0899499058723449</v>
+        <v>-0.030695978552103</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2608394622802734</v>
+        <v>-0.062460970133543</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.039387226104736</v>
+        <v>0.0204639863222837</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.585742652416225</v>
+        <v>-0.2396689057350159</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2296125292777953</v>
+        <v>0.2092438936233521</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.877650618553173</v>
+        <v>0.5360905304551128</v>
       </c>
       <c r="F7" t="n">
-        <v>0.28557950258255</v>
+        <v>0.0216857157647609</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1322523206472396</v>
+        <v>-0.0343611687421798</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.019686818122864</v>
+        <v>-0.0035124751739203</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32.24908399581916</v>
+        <v>-0.5706689357757579</v>
       </c>
       <c r="D8" t="n">
-        <v>1.757101297378541</v>
+        <v>0.0343174934387197</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.40909767150881</v>
+        <v>1.229419425129892</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.732122004032135</v>
+        <v>-0.0884227454662323</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.8946121335029602</v>
+        <v>0.143247902393341</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.311154365539551</v>
+        <v>0.0100792767480015</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>38.13093996047955</v>
+        <v>-1.414066433906555</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9024124443530952</v>
+        <v>-0.8149144649505613</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.60817745327944</v>
+        <v>2.08326780796051</v>
       </c>
       <c r="F9" t="n">
-        <v>1.028391599655151</v>
+        <v>0.064446285367012</v>
       </c>
       <c r="G9" t="n">
-        <v>1.130253434181213</v>
+        <v>0.3347541689872741</v>
       </c>
       <c r="H9" t="n">
-        <v>3.014009237289429</v>
+        <v>-0.1197295859456062</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-7.90490770339963</v>
+        <v>-1.309795856475833</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8560311645269356</v>
+        <v>-1.58020401000977</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1380237340927017</v>
+        <v>2.379897594451913</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07590000331401819</v>
+        <v>0.270766019821167</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.049120426177979</v>
+        <v>0.8387179970741272</v>
       </c>
       <c r="H10" t="n">
-        <v>-5.136155128479004</v>
+        <v>-0.0482583530247211</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.8446803092956439</v>
+        <v>-2.793576478958134</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1755323782563287</v>
+        <v>-3.474893987178807</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.320274218916883</v>
+        <v>6.666534841060649</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1689042448997497</v>
+        <v>-0.08216137439012521</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.859904766082764</v>
+        <v>1.014799833297729</v>
       </c>
       <c r="H11" t="n">
-        <v>2.358856201171875</v>
+        <v>-0.6319400668144226</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.742444992065419</v>
+        <v>-4.682361364364626</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.150509834289533</v>
+        <v>-3.100861430168151</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2485989332199101</v>
+        <v>4.060978174209591</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0294742472469806</v>
+        <v>-0.0899499058723449</v>
       </c>
       <c r="G12" t="n">
-        <v>0.19288070499897</v>
+        <v>-0.2608394622802734</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1658499091863632</v>
+        <v>-1.039387226104736</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.7136693000793468</v>
+        <v>-3.585742652416225</v>
       </c>
       <c r="D13" t="n">
-        <v>1.730671703815462</v>
+        <v>-0.2296125292777953</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3537724539637566</v>
+        <v>-1.877650618553173</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0536034256219863</v>
+        <v>0.28557950258255</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2634356319904327</v>
+        <v>0.1322523206472396</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0305432621389627</v>
+        <v>-1.019686818122864</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.686201095581059</v>
+        <v>32.24908399581916</v>
       </c>
       <c r="D14" t="n">
-        <v>3.945523738861086</v>
+        <v>1.757101297378541</v>
       </c>
       <c r="E14" t="n">
-        <v>1.747492060065271</v>
+        <v>-14.40909767150881</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0258090570569038</v>
+        <v>-0.732122004032135</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06276640295982359</v>
+        <v>-0.8946121335029602</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09498954564332961</v>
+        <v>-6.311154365539551</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.98302841186523</v>
+        <v>38.13093996047955</v>
       </c>
       <c r="D15" t="n">
-        <v>0.490952953696242</v>
+        <v>0.9024124443530952</v>
       </c>
       <c r="E15" t="n">
-        <v>1.275657050311563</v>
+        <v>-14.60817745327944</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3324634134769439</v>
+        <v>1.028391599655151</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.5954409241676331</v>
+        <v>1.130253434181213</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.4030183553695678</v>
+        <v>3.014009237289429</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3104100227355938</v>
+        <v>-7.90490770339963</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2889727950096068</v>
+        <v>-0.8560311645269356</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5794646739959711</v>
+        <v>0.1380237340927017</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3912591934204101</v>
+        <v>0.07590000331401819</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4184426963329315</v>
+        <v>-4.049120426177979</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.00137444678694</v>
+        <v>-5.136155128479004</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.04419469833374176</v>
+        <v>-0.8446803092956439</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8591627478599517</v>
+        <v>-0.1755323782563287</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3674164339900012</v>
+        <v>-2.320274218916883</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0673478916287422</v>
+        <v>-0.1689042448997497</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2486221492290496</v>
+        <v>-3.859904766082764</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.2105957865715026</v>
+        <v>2.358856201171875</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2313020229339599</v>
+        <v>1.742444992065419</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09604209661483762</v>
+        <v>-2.150509834289533</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4004635512828826</v>
+        <v>0.2485989332199101</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1072068512439727</v>
+        <v>0.0294742472469806</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0436768643558025</v>
+        <v>0.19288070499897</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0542142912745475</v>
+        <v>0.1658499091863632</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.3572330474853509</v>
+        <v>-0.7136693000793468</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2147855013608939</v>
+        <v>1.730671703815462</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8202954158186898</v>
+        <v>0.3537724539637566</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0618501044809818</v>
+        <v>0.0536034256219863</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08750644326210021</v>
+        <v>0.2634356319904327</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0809396430850029</v>
+        <v>0.0305432621389627</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.2039585113525387</v>
+        <v>2.686201095581059</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3848990201950067</v>
+        <v>3.945523738861086</v>
       </c>
       <c r="E20" t="n">
-        <v>0.450774848461151</v>
+        <v>1.747492060065271</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0142026171088218</v>
+        <v>0.0258090570569038</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0065668015740811</v>
+        <v>0.06276640295982359</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0097738439217209</v>
+        <v>0.09498954564332961</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>1.98302841186523</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.490952953696242</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.275657050311563</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.3324634134769439</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.5954409241676331</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.4030183553695678</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3104100227355938</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.2889727950096068</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5794646739959711</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.3912591934204101</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4184426963329315</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.00137444678694</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.04419469833374176</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8591627478599517</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3674164339900012</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.0673478916287422</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2486221492290496</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.2105957865715026</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2313020229339599</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.09604209661483762</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4004635512828826</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1072068512439727</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.0436768643558025</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.0542142912745475</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.3572330474853509</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2147855013608939</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8202954158186898</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.0618501044809818</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.08750644326210021</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.0809396430850029</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.2039585113525387</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3848990201950067</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.450774848461151</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0142026171088218</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0065668015740811</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0097738439217209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>-0.1377420425415036</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>0.2468021512031548</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E27" t="n">
         <v>0.4247342199087141</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F27" t="n">
         <v>-0.007177666760981</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G27" t="n">
         <v>-0.0444404482841491</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>0.0639881342649459</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1972274780273441</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.3113194406032568</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5224930047988898</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0047342055477201</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0751364231109619</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0545197241008281</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.2138409614562988</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2108606994152066</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.46574055776</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0003054326225537</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0100792767480015</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0006108652451075</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.09080266952514603</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2757070064544683</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.4601370841264726</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0152716310694813</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.00167987938039</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.047036625444889</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.04834830760955861</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.3611972928047176</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5197352617979051</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.0091629782691597</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0114537235349416</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0062613687478005</v>
       </c>
     </row>
   </sheetData>
